--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2204094439047</v>
+        <v>15.26339533333333</v>
       </c>
       <c r="H2">
-        <v>15.2204094439047</v>
+        <v>45.790186</v>
       </c>
       <c r="I2">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="J2">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.831913729675138</v>
+        <v>1.263230666666667</v>
       </c>
       <c r="N2">
-        <v>0.831913729675138</v>
+        <v>3.789692</v>
       </c>
       <c r="O2">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568614</v>
       </c>
       <c r="P2">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568615</v>
       </c>
       <c r="Q2">
-        <v>12.66206758766145</v>
+        <v>19.28118906252356</v>
       </c>
       <c r="R2">
-        <v>12.66206758766145</v>
+        <v>173.530701562712</v>
       </c>
       <c r="S2">
-        <v>0.0003993007986324871</v>
+        <v>0.0005534240199619462</v>
       </c>
       <c r="T2">
-        <v>0.0003993007986324871</v>
+        <v>0.0005534240199619464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2204094439047</v>
+        <v>15.26339533333333</v>
       </c>
       <c r="H3">
-        <v>15.2204094439047</v>
+        <v>45.790186</v>
       </c>
       <c r="I3">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="J3">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.89259625786256</v>
+        <v>2.153319666666667</v>
       </c>
       <c r="N3">
-        <v>1.89259625786256</v>
+        <v>6.459959</v>
       </c>
       <c r="O3">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="P3">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="Q3">
-        <v>28.80608995667</v>
+        <v>32.86696935137489</v>
       </c>
       <c r="R3">
-        <v>28.80608995667</v>
+        <v>295.802724162374</v>
       </c>
       <c r="S3">
-        <v>0.0009084057280175954</v>
+        <v>0.000943373888582332</v>
       </c>
       <c r="T3">
-        <v>0.0009084057280175954</v>
+        <v>0.0009433738885823322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2204094439047</v>
+        <v>15.26339533333333</v>
       </c>
       <c r="H4">
-        <v>15.2204094439047</v>
+        <v>45.790186</v>
       </c>
       <c r="I4">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="J4">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.614766393541</v>
+        <v>116.5003256666667</v>
       </c>
       <c r="N4">
-        <v>115.614766393541</v>
+        <v>349.500977</v>
       </c>
       <c r="O4">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="P4">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="Q4">
-        <v>1759.704082271087</v>
+        <v>1778.190527112414</v>
       </c>
       <c r="R4">
-        <v>1759.704082271087</v>
+        <v>16003.71474401172</v>
       </c>
       <c r="S4">
-        <v>0.05549261528918005</v>
+        <v>0.05103903844216569</v>
       </c>
       <c r="T4">
-        <v>0.05549261528918005</v>
+        <v>0.0510390384421657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2204094439047</v>
+        <v>15.26339533333333</v>
       </c>
       <c r="H5">
-        <v>15.2204094439047</v>
+        <v>45.790186</v>
       </c>
       <c r="I5">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="J5">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>182.047735839334</v>
+        <v>189.9259493333334</v>
       </c>
       <c r="N5">
-        <v>182.047735839334</v>
+        <v>569.7778480000001</v>
       </c>
       <c r="O5">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="P5">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="Q5">
-        <v>2770.841077810467</v>
+        <v>2898.914848733304</v>
       </c>
       <c r="R5">
-        <v>2770.841077810467</v>
+        <v>26090.23363859973</v>
       </c>
       <c r="S5">
-        <v>0.0873790198633556</v>
+        <v>0.08320695906829022</v>
       </c>
       <c r="T5">
-        <v>0.0873790198633556</v>
+        <v>0.08320695906829023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2204094439047</v>
+        <v>15.26339533333333</v>
       </c>
       <c r="H6">
-        <v>15.2204094439047</v>
+        <v>45.790186</v>
       </c>
       <c r="I6">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="J6">
-        <v>0.1445377794345307</v>
+        <v>0.1360732787676056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.746778596302852</v>
+        <v>0.7543523333333334</v>
       </c>
       <c r="N6">
-        <v>0.746778596302852</v>
+        <v>2.263057</v>
       </c>
       <c r="O6">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="P6">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="Q6">
-        <v>11.36627599967382</v>
+        <v>11.51397788428911</v>
       </c>
       <c r="R6">
-        <v>11.36627599967382</v>
+        <v>103.625800958602</v>
       </c>
       <c r="S6">
-        <v>0.0003584377553449194</v>
+        <v>0.0003304833486053807</v>
       </c>
       <c r="T6">
-        <v>0.0003584377553449194</v>
+        <v>0.0003304833486053808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>70.4639756485758</v>
+        <v>70.69791133333334</v>
       </c>
       <c r="H7">
-        <v>70.4639756485758</v>
+        <v>212.093734</v>
       </c>
       <c r="I7">
-        <v>0.6691480020895657</v>
+        <v>0.630272386127551</v>
       </c>
       <c r="J7">
-        <v>0.6691480020895657</v>
+        <v>0.6302723861275512</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.831913729675138</v>
+        <v>1.263230666666667</v>
       </c>
       <c r="N7">
-        <v>0.831913729675138</v>
+        <v>3.789692</v>
       </c>
       <c r="O7">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568614</v>
       </c>
       <c r="P7">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568615</v>
       </c>
       <c r="Q7">
-        <v>58.61994878954479</v>
+        <v>89.30776966554755</v>
       </c>
       <c r="R7">
-        <v>58.61994878954479</v>
+        <v>803.7699269899281</v>
       </c>
       <c r="S7">
-        <v>0.001848591646301878</v>
+        <v>0.002563382618254045</v>
       </c>
       <c r="T7">
-        <v>0.001848591646301878</v>
+        <v>0.002563382618254046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.4639756485758</v>
+        <v>70.69791133333334</v>
       </c>
       <c r="H8">
-        <v>70.4639756485758</v>
+        <v>212.093734</v>
       </c>
       <c r="I8">
-        <v>0.6691480020895657</v>
+        <v>0.630272386127551</v>
       </c>
       <c r="J8">
-        <v>0.6691480020895657</v>
+        <v>0.6302723861275512</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.89259625786256</v>
+        <v>2.153319666666667</v>
       </c>
       <c r="N8">
-        <v>1.89259625786256</v>
+        <v>6.459959</v>
       </c>
       <c r="O8">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="P8">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="Q8">
-        <v>133.3598566266131</v>
+        <v>152.2352028663229</v>
       </c>
       <c r="R8">
-        <v>133.3598566266131</v>
+        <v>1370.116825796906</v>
       </c>
       <c r="S8">
-        <v>0.004205529380399984</v>
+        <v>0.004369575842900633</v>
       </c>
       <c r="T8">
-        <v>0.004205529380399984</v>
+        <v>0.004369575842900634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.4639756485758</v>
+        <v>70.69791133333334</v>
       </c>
       <c r="H9">
-        <v>70.4639756485758</v>
+        <v>212.093734</v>
       </c>
       <c r="I9">
-        <v>0.6691480020895657</v>
+        <v>0.630272386127551</v>
       </c>
       <c r="J9">
-        <v>0.6691480020895657</v>
+        <v>0.6302723861275512</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.614766393541</v>
+        <v>116.5003256666667</v>
       </c>
       <c r="N9">
-        <v>115.614766393541</v>
+        <v>349.500977</v>
       </c>
       <c r="O9">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="P9">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="Q9">
-        <v>8146.676083770252</v>
+        <v>8236.32969428646</v>
       </c>
       <c r="R9">
-        <v>8146.676083770252</v>
+        <v>74126.96724857813</v>
       </c>
       <c r="S9">
-        <v>0.2569070370165695</v>
+        <v>0.2364056840251416</v>
       </c>
       <c r="T9">
-        <v>0.2569070370165695</v>
+        <v>0.2364056840251417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70.4639756485758</v>
+        <v>70.69791133333334</v>
       </c>
       <c r="H10">
-        <v>70.4639756485758</v>
+        <v>212.093734</v>
       </c>
       <c r="I10">
-        <v>0.6691480020895657</v>
+        <v>0.630272386127551</v>
       </c>
       <c r="J10">
-        <v>0.6691480020895657</v>
+        <v>0.6302723861275512</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>182.047735839334</v>
+        <v>189.9259493333334</v>
       </c>
       <c r="N10">
-        <v>182.047735839334</v>
+        <v>569.7778480000001</v>
       </c>
       <c r="O10">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="P10">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="Q10">
-        <v>12827.80722506119</v>
+        <v>13427.36792586716</v>
       </c>
       <c r="R10">
-        <v>12827.80722506119</v>
+        <v>120846.3113328045</v>
       </c>
       <c r="S10">
-        <v>0.4045274307856169</v>
+        <v>0.385402991015997</v>
       </c>
       <c r="T10">
-        <v>0.4045274307856169</v>
+        <v>0.3854029910159971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>70.4639756485758</v>
+        <v>70.69791133333334</v>
       </c>
       <c r="H11">
-        <v>70.4639756485758</v>
+        <v>212.093734</v>
       </c>
       <c r="I11">
-        <v>0.6691480020895657</v>
+        <v>0.630272386127551</v>
       </c>
       <c r="J11">
-        <v>0.6691480020895657</v>
+        <v>0.6302723861275512</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.746778596302852</v>
+        <v>0.7543523333333334</v>
       </c>
       <c r="N11">
-        <v>0.746778596302852</v>
+        <v>2.263057</v>
       </c>
       <c r="O11">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="P11">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="Q11">
-        <v>52.62098882476178</v>
+        <v>53.33113437609312</v>
       </c>
       <c r="R11">
-        <v>52.62098882476178</v>
+        <v>479.9802093848381</v>
       </c>
       <c r="S11">
-        <v>0.001659413260677372</v>
+        <v>0.001530752625257711</v>
       </c>
       <c r="T11">
-        <v>0.001659413260677372</v>
+        <v>0.001530752625257712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.64340329945281</v>
+        <v>4.988909666666666</v>
       </c>
       <c r="H12">
-        <v>4.64340329945281</v>
+        <v>14.966729</v>
       </c>
       <c r="I12">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671843</v>
       </c>
       <c r="J12">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.831913729675138</v>
+        <v>1.263230666666667</v>
       </c>
       <c r="N12">
-        <v>0.831913729675138</v>
+        <v>3.789692</v>
       </c>
       <c r="O12">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568614</v>
       </c>
       <c r="P12">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568615</v>
       </c>
       <c r="Q12">
-        <v>3.862910957233629</v>
+        <v>6.30214368416311</v>
       </c>
       <c r="R12">
-        <v>3.862910957233629</v>
+        <v>56.71929315746799</v>
       </c>
       <c r="S12">
-        <v>0.0001218176588926619</v>
+        <v>0.0001808891391893678</v>
       </c>
       <c r="T12">
-        <v>0.0001218176588926619</v>
+        <v>0.0001808891391893678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.64340329945281</v>
+        <v>4.988909666666666</v>
       </c>
       <c r="H13">
-        <v>4.64340329945281</v>
+        <v>14.966729</v>
       </c>
       <c r="I13">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671843</v>
       </c>
       <c r="J13">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.89259625786256</v>
+        <v>2.153319666666667</v>
       </c>
       <c r="N13">
-        <v>1.89259625786256</v>
+        <v>6.459959</v>
       </c>
       <c r="O13">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="P13">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="Q13">
-        <v>8.788087708291052</v>
+        <v>10.74271730045678</v>
       </c>
       <c r="R13">
-        <v>8.788087708291052</v>
+        <v>96.684455704111</v>
       </c>
       <c r="S13">
-        <v>0.0002771340790971921</v>
+        <v>0.0003083460140582953</v>
       </c>
       <c r="T13">
-        <v>0.0002771340790971921</v>
+        <v>0.0003083460140582954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.64340329945281</v>
+        <v>4.988909666666666</v>
       </c>
       <c r="H14">
-        <v>4.64340329945281</v>
+        <v>14.966729</v>
       </c>
       <c r="I14">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671843</v>
       </c>
       <c r="J14">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671844</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.614766393541</v>
+        <v>116.5003256666667</v>
       </c>
       <c r="N14">
-        <v>115.614766393541</v>
+        <v>349.500977</v>
       </c>
       <c r="O14">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="P14">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="Q14">
-        <v>536.8459877372342</v>
+        <v>581.2096008882481</v>
       </c>
       <c r="R14">
-        <v>536.8459877372342</v>
+        <v>5230.886407994233</v>
       </c>
       <c r="S14">
-        <v>0.01692954410186611</v>
+        <v>0.01668234011507348</v>
       </c>
       <c r="T14">
-        <v>0.01692954410186611</v>
+        <v>0.01668234011507348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.64340329945281</v>
+        <v>4.988909666666666</v>
       </c>
       <c r="H15">
-        <v>4.64340329945281</v>
+        <v>14.966729</v>
       </c>
       <c r="I15">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671843</v>
       </c>
       <c r="J15">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671844</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>182.047735839334</v>
+        <v>189.9259493333334</v>
       </c>
       <c r="N15">
-        <v>182.047735839334</v>
+        <v>569.7778480000001</v>
       </c>
       <c r="O15">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="P15">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="Q15">
-        <v>845.3210572542771</v>
+        <v>947.5234045799103</v>
       </c>
       <c r="R15">
-        <v>845.3210572542771</v>
+        <v>8527.710641219192</v>
       </c>
       <c r="S15">
-        <v>0.02665736625757743</v>
+        <v>0.02719657018403883</v>
       </c>
       <c r="T15">
-        <v>0.02665736625757743</v>
+        <v>0.02719657018403883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.64340329945281</v>
+        <v>4.988909666666666</v>
       </c>
       <c r="H16">
-        <v>4.64340329945281</v>
+        <v>14.966729</v>
       </c>
       <c r="I16">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671843</v>
       </c>
       <c r="J16">
-        <v>0.04409521336435898</v>
+        <v>0.04447616542671844</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.746778596302852</v>
+        <v>0.7543523333333334</v>
       </c>
       <c r="N16">
-        <v>0.746778596302852</v>
+        <v>2.263057</v>
       </c>
       <c r="O16">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="P16">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="Q16">
-        <v>3.467594198033401</v>
+        <v>3.763395647839222</v>
       </c>
       <c r="R16">
-        <v>3.467594198033401</v>
+        <v>33.870560830553</v>
       </c>
       <c r="S16">
-        <v>0.0001093512669255811</v>
+        <v>0.0001080199743584632</v>
       </c>
       <c r="T16">
-        <v>0.0001093512669255811</v>
+        <v>0.0001080199743584632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.56064550972816</v>
+        <v>7.309430666666667</v>
       </c>
       <c r="H17">
-        <v>4.56064550972816</v>
+        <v>21.928292</v>
       </c>
       <c r="I17">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957579</v>
       </c>
       <c r="J17">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957581</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.831913729675138</v>
+        <v>1.263230666666667</v>
       </c>
       <c r="N17">
-        <v>0.831913729675138</v>
+        <v>3.789692</v>
       </c>
       <c r="O17">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568614</v>
       </c>
       <c r="P17">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568615</v>
       </c>
       <c r="Q17">
-        <v>3.794063615724125</v>
+        <v>9.23349697400711</v>
       </c>
       <c r="R17">
-        <v>3.794063615724125</v>
+        <v>83.10147276606399</v>
       </c>
       <c r="S17">
-        <v>0.0001196465443998553</v>
+        <v>0.000265027172187931</v>
       </c>
       <c r="T17">
-        <v>0.0001196465443998553</v>
+        <v>0.0002650271721879311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.56064550972816</v>
+        <v>7.309430666666667</v>
       </c>
       <c r="H18">
-        <v>4.56064550972816</v>
+        <v>21.928292</v>
       </c>
       <c r="I18">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957579</v>
       </c>
       <c r="J18">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957581</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.89259625786256</v>
+        <v>2.153319666666667</v>
       </c>
       <c r="N18">
-        <v>1.89259625786256</v>
+        <v>6.459959</v>
       </c>
       <c r="O18">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="P18">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="Q18">
-        <v>8.631460625149202</v>
+        <v>15.73954080666978</v>
       </c>
       <c r="R18">
-        <v>8.631460625149202</v>
+        <v>141.655867260028</v>
       </c>
       <c r="S18">
-        <v>0.0002721948131397934</v>
+        <v>0.0004517688155712852</v>
       </c>
       <c r="T18">
-        <v>0.0002721948131397934</v>
+        <v>0.0004517688155712853</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.56064550972816</v>
+        <v>7.309430666666667</v>
       </c>
       <c r="H19">
-        <v>4.56064550972816</v>
+        <v>21.928292</v>
       </c>
       <c r="I19">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957579</v>
       </c>
       <c r="J19">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957581</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.614766393541</v>
+        <v>116.5003256666667</v>
       </c>
       <c r="N19">
-        <v>115.614766393541</v>
+        <v>349.500977</v>
       </c>
       <c r="O19">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="P19">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="Q19">
-        <v>527.277965210973</v>
+        <v>851.5510531045873</v>
       </c>
       <c r="R19">
-        <v>527.277965210973</v>
+        <v>7663.959477941285</v>
       </c>
       <c r="S19">
-        <v>0.01662781462446286</v>
+        <v>0.02444189543932043</v>
       </c>
       <c r="T19">
-        <v>0.01662781462446286</v>
+        <v>0.02444189543932044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.56064550972816</v>
+        <v>7.309430666666667</v>
       </c>
       <c r="H20">
-        <v>4.56064550972816</v>
+        <v>21.928292</v>
       </c>
       <c r="I20">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957579</v>
       </c>
       <c r="J20">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957581</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>182.047735839334</v>
+        <v>189.9259493333334</v>
       </c>
       <c r="N20">
-        <v>182.047735839334</v>
+        <v>569.7778480000001</v>
       </c>
       <c r="O20">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="P20">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="Q20">
-        <v>830.2551890118368</v>
+        <v>1388.250558452846</v>
       </c>
       <c r="R20">
-        <v>830.2551890118368</v>
+        <v>12494.25502607562</v>
       </c>
       <c r="S20">
-        <v>0.02618226113121084</v>
+        <v>0.03984667139988284</v>
       </c>
       <c r="T20">
-        <v>0.02618226113121084</v>
+        <v>0.03984667139988285</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.56064550972816</v>
+        <v>7.309430666666667</v>
       </c>
       <c r="H21">
-        <v>4.56064550972816</v>
+        <v>21.928292</v>
       </c>
       <c r="I21">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957579</v>
       </c>
       <c r="J21">
-        <v>0.0433093194498887</v>
+        <v>0.06516362676957581</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.746778596302852</v>
+        <v>0.7543523333333334</v>
       </c>
       <c r="N21">
-        <v>0.746778596302852</v>
+        <v>2.263057</v>
       </c>
       <c r="O21">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="P21">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="Q21">
-        <v>3.405792451989701</v>
+        <v>5.513886078738222</v>
       </c>
       <c r="R21">
-        <v>3.405792451989701</v>
+        <v>49.624974708644</v>
       </c>
       <c r="S21">
-        <v>0.0001074023366753446</v>
+        <v>0.0001582639426133054</v>
       </c>
       <c r="T21">
-        <v>0.0001074023366753446</v>
+        <v>0.0001582639426133055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.4155876728424</v>
+        <v>13.910762</v>
       </c>
       <c r="H22">
-        <v>10.4155876728424</v>
+        <v>41.732286</v>
       </c>
       <c r="I22">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="J22">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.831913729675138</v>
+        <v>1.263230666666667</v>
       </c>
       <c r="N22">
-        <v>0.831913729675138</v>
+        <v>3.789692</v>
       </c>
       <c r="O22">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568614</v>
       </c>
       <c r="P22">
-        <v>0.002762605044817041</v>
+        <v>0.004067102850568615</v>
       </c>
       <c r="Q22">
-        <v>8.664870387672712</v>
+        <v>17.57250115510133</v>
       </c>
       <c r="R22">
-        <v>8.664870387672712</v>
+        <v>158.152510395912</v>
       </c>
       <c r="S22">
-        <v>0.000273248396590158</v>
+        <v>0.0005043799009753236</v>
       </c>
       <c r="T22">
-        <v>0.000273248396590158</v>
+        <v>0.0005043799009753239</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.4155876728424</v>
+        <v>13.910762</v>
       </c>
       <c r="H23">
-        <v>10.4155876728424</v>
+        <v>41.732286</v>
       </c>
       <c r="I23">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="J23">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.89259625786256</v>
+        <v>2.153319666666667</v>
       </c>
       <c r="N23">
-        <v>1.89259625786256</v>
+        <v>6.459959</v>
       </c>
       <c r="O23">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="P23">
-        <v>0.006284901646970879</v>
+        <v>0.006932837197180241</v>
       </c>
       <c r="Q23">
-        <v>19.71250225306094</v>
+        <v>29.95431739291934</v>
       </c>
       <c r="R23">
-        <v>19.71250225306094</v>
+        <v>269.588856536274</v>
       </c>
       <c r="S23">
-        <v>0.0006216376463163125</v>
+        <v>0.0008597726360676939</v>
       </c>
       <c r="T23">
-        <v>0.0006216376463163125</v>
+        <v>0.0008597726360676943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.4155876728424</v>
+        <v>13.910762</v>
       </c>
       <c r="H24">
-        <v>10.4155876728424</v>
+        <v>41.732286</v>
       </c>
       <c r="I24">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="J24">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.614766393541</v>
+        <v>116.5003256666667</v>
       </c>
       <c r="N24">
-        <v>115.614766393541</v>
+        <v>349.500977</v>
       </c>
       <c r="O24">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="P24">
-        <v>0.3839315610512461</v>
+        <v>0.3750849461732553</v>
       </c>
       <c r="Q24">
-        <v>1204.19573564712</v>
+        <v>1620.608303271492</v>
       </c>
       <c r="R24">
-        <v>1204.19573564712</v>
+        <v>14585.47472944342</v>
       </c>
       <c r="S24">
-        <v>0.03797455001916757</v>
+        <v>0.04651598815155398</v>
       </c>
       <c r="T24">
-        <v>0.03797455001916757</v>
+        <v>0.046515988151554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.4155876728424</v>
+        <v>13.910762</v>
       </c>
       <c r="H25">
-        <v>10.4155876728424</v>
+        <v>41.732286</v>
       </c>
       <c r="I25">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="J25">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>182.047735839334</v>
+        <v>189.9259493333334</v>
       </c>
       <c r="N25">
-        <v>182.047735839334</v>
+        <v>569.7778480000001</v>
       </c>
       <c r="O25">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="P25">
-        <v>0.6045410425233113</v>
+        <v>0.6114863977842134</v>
       </c>
       <c r="Q25">
-        <v>1896.134153277037</v>
+        <v>2642.014678800059</v>
       </c>
       <c r="R25">
-        <v>1896.134153277037</v>
+        <v>23778.13210920053</v>
       </c>
       <c r="S25">
-        <v>0.05979496448555042</v>
+        <v>0.07583320611600444</v>
       </c>
       <c r="T25">
-        <v>0.05979496448555042</v>
+        <v>0.07583320611600446</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.4155876728424</v>
+        <v>13.910762</v>
       </c>
       <c r="H26">
-        <v>10.4155876728424</v>
+        <v>41.732286</v>
       </c>
       <c r="I26">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="J26">
-        <v>0.09890968566165581</v>
+        <v>0.1240145429085491</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.746778596302852</v>
+        <v>0.7543523333333334</v>
       </c>
       <c r="N26">
-        <v>0.746778596302852</v>
+        <v>2.263057</v>
       </c>
       <c r="O26">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="P26">
-        <v>0.002479889733654558</v>
+        <v>0.002428715994782494</v>
       </c>
       <c r="Q26">
-        <v>7.778137941994538</v>
+        <v>10.49361577314467</v>
       </c>
       <c r="R26">
-        <v>7.778137941994538</v>
+        <v>94.44254195830202</v>
       </c>
       <c r="S26">
-        <v>0.0002452851140313396</v>
+        <v>0.000301196103947633</v>
       </c>
       <c r="T26">
-        <v>0.0002452851140313396</v>
+        <v>0.0003011961039476331</v>
       </c>
     </row>
   </sheetData>
